--- a/FX_Analysis/Trading Strategies/Bollinger_Band_Research.xlsx
+++ b/FX_Analysis/Trading Strategies/Bollinger_Band_Research.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radoC\Jupyter_Notebooks\FX_Analysis\Trading Strategies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A87A46-1E75-4367-A8E9-E72A36779288}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD745DA2-7B11-426A-BE5E-DB9AAEC91AAA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="-16200" windowWidth="11070" windowHeight="11385" xr2:uid="{ACBDD087-478B-4BBF-B830-0F3DBAD3C1BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACBDD087-478B-4BBF-B830-0F3DBAD3C1BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
   <si>
     <t>Min</t>
   </si>
@@ -46,6 +52,33 @@
   </si>
   <si>
     <t>07 to 20 UTC trading</t>
+  </si>
+  <si>
+    <t>20180219 - 20180919</t>
+  </si>
+  <si>
+    <t>20180219 - 20190315</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>Stop Loss distance = 0.0005</t>
+  </si>
+  <si>
+    <t>Stop Loss distance = 0.0010</t>
+  </si>
+  <si>
+    <t>Profit buffer = 0.0001</t>
+  </si>
+  <si>
+    <t>Profit buffer = 0.0010</t>
+  </si>
+  <si>
+    <t>Profit buffer = 0.0005</t>
   </si>
 </sst>
 </file>
@@ -87,9 +120,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,6 +145,1583 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="20"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="20"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>hh:mm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="hh:mm:ss">
+                  <c:v>0.54861111111110605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55555555555555103</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="hh:mm:ss">
+                  <c:v>0.562499999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56944444444444098</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="hh:mm:ss">
+                  <c:v>0.57638888888888595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58333333333333104</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="hh:mm:ss">
+                  <c:v>0.59027777777777601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59722222222222099</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="hh:mm:ss">
+                  <c:v>0.60416666666666596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61111111111111005</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="hh:mm:ss">
+                  <c:v>0.61805555555555503</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.624999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="hh:mm:ss">
+                  <c:v>0.63194444444444398</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.63888888888888895</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="hh:mm:ss">
+                  <c:v>0.64583333333333304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65277777777777801</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="hh:mm:ss">
+                  <c:v>0.65972222222222199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="hh:mm:ss">
+                  <c:v>0.67361111111111116</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.68055555555555602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$7:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.1386750000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1380250000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.138425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.138925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1387750000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1384749999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1382749999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1385749999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1388750000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.138325</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.13835</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.138225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1382749999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1380749999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1380749999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.138625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1388750000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1381250000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.138425</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1380749999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2580-4401-AC87-47A909F28CE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>hh:mm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="hh:mm:ss">
+                  <c:v>0.54861111111110605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55555555555555103</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="hh:mm:ss">
+                  <c:v>0.562499999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56944444444444098</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="hh:mm:ss">
+                  <c:v>0.57638888888888595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58333333333333104</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="hh:mm:ss">
+                  <c:v>0.59027777777777601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59722222222222099</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="hh:mm:ss">
+                  <c:v>0.60416666666666596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61111111111111005</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="hh:mm:ss">
+                  <c:v>0.61805555555555503</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.624999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="hh:mm:ss">
+                  <c:v>0.63194444444444398</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.63888888888888895</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="hh:mm:ss">
+                  <c:v>0.64583333333333304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65277777777777801</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="hh:mm:ss">
+                  <c:v>0.65972222222222199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="hh:mm:ss">
+                  <c:v>0.67361111111111116</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.68055555555555602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$7:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.1389750000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.138525</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1391249999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.139025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1393249999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.138525</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1387750000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.139175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1390750000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1388750000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.138625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.138625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.138525</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.138425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.138625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1395249999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1389750000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.138725</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1386750000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1381250000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2580-4401-AC87-47A909F28CE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>hh:mm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="hh:mm:ss">
+                  <c:v>0.54861111111110605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55555555555555103</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="hh:mm:ss">
+                  <c:v>0.562499999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56944444444444098</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="hh:mm:ss">
+                  <c:v>0.57638888888888595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58333333333333104</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="hh:mm:ss">
+                  <c:v>0.59027777777777601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59722222222222099</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="hh:mm:ss">
+                  <c:v>0.60416666666666596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61111111111111005</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="hh:mm:ss">
+                  <c:v>0.61805555555555503</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.624999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="hh:mm:ss">
+                  <c:v>0.63194444444444398</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.63888888888888895</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="hh:mm:ss">
+                  <c:v>0.64583333333333304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65277777777777801</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="hh:mm:ss">
+                  <c:v>0.65972222222222199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="hh:mm:ss">
+                  <c:v>0.67361111111111116</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.68055555555555602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$7:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.1380250000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1380250000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.138325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.138625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.138425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1381250000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1381250000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1384749999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1382749999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1382749999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.137875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1375249999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1368750000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.137975</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1377250000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.138625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1381250000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1380250000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.137975</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1371500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2580-4401-AC87-47A909F28CE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="19"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>hh:mm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="hh:mm:ss">
+                  <c:v>0.54861111111110605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55555555555555103</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="hh:mm:ss">
+                  <c:v>0.562499999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56944444444444098</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="hh:mm:ss">
+                  <c:v>0.57638888888888595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58333333333333104</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="hh:mm:ss">
+                  <c:v>0.59027777777777601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59722222222222099</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="hh:mm:ss">
+                  <c:v>0.60416666666666596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61111111111111005</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="hh:mm:ss">
+                  <c:v>0.61805555555555503</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.624999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="hh:mm:ss">
+                  <c:v>0.63194444444444398</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.63888888888888895</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="hh:mm:ss">
+                  <c:v>0.64583333333333304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65277777777777801</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="hh:mm:ss">
+                  <c:v>0.65972222222222199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="hh:mm:ss">
+                  <c:v>0.67361111111111116</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.68055555555555602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$7:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.1380250000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.138425</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.138925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1387750000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1384749999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1382749999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1385749999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1388750000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.138325</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.13835</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.138225</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1382749999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1380749999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1380749999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.138625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1388750000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1381250000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.138425</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1380749999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.137175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2580-4401-AC87-47A909F28CE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:upDownBars>
+          <c:gapWidth val="150"/>
+          <c:upBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:upBars>
+          <c:downBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:downBars>
+        </c:upDownBars>
+        <c:axId val="1475454831"/>
+        <c:axId val="1360567823"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="1475454831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="hh:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1360567823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1360567823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1475454831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B26B4CD-9702-42A0-A10C-0577A4E83381}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,9 +2021,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306D7B4B-46B5-4C54-9D00-280F7E2A654C}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -414,413 +2033,1118 @@
     <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="24.85546875" customWidth="1"/>
+    <col min="9" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>-4073</v>
+      </c>
+      <c r="H8">
+        <v>-3722</v>
+      </c>
+      <c r="I8" s="6">
+        <v>-4028</v>
+      </c>
+      <c r="J8">
+        <v>-3394</v>
+      </c>
+      <c r="K8">
+        <v>-2880</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>15</v>
       </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>787</v>
+      </c>
+      <c r="J10">
+        <v>934</v>
+      </c>
+      <c r="K10">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>-331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>-1020</v>
+      </c>
+      <c r="K12">
+        <v>-924</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>20</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>20</v>
       </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>712</v>
+      </c>
+      <c r="K14">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>30</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>30</v>
       </c>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>260</v>
+      </c>
+      <c r="J16">
+        <v>701</v>
+      </c>
+      <c r="K16">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>60</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>60</v>
       </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>1053</v>
+      </c>
+      <c r="J18">
+        <v>1354</v>
+      </c>
+      <c r="K18">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
         <v>5</v>
       </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>73</v>
-      </c>
-      <c r="E21">
-        <v>90</v>
-      </c>
-      <c r="F21">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>843</v>
+      </c>
+      <c r="L23">
+        <f>897/264</f>
+        <v>3.3977272727272729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>111</v>
-      </c>
-      <c r="E24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>177</v>
-      </c>
-      <c r="E25">
-        <v>258</v>
-      </c>
-      <c r="F25">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>382</v>
+      </c>
+      <c r="I27">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>223</v>
+      </c>
+      <c r="I29">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>20</v>
       </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1057</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1327</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>60</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>60</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <f>100000/1000</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>73</v>
+      </c>
+      <c r="E41">
+        <v>90</v>
+      </c>
+      <c r="F41">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>111</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>177</v>
+      </c>
+      <c r="E45">
+        <v>258</v>
+      </c>
+      <c r="F45">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>15</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>20</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48">
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>20</v>
       </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29">
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49">
         <v>380</v>
       </c>
-      <c r="E29">
+      <c r="E49">
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>30</v>
       </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30">
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50">
         <v>780</v>
       </c>
-      <c r="E30">
+      <c r="E50">
         <v>565</v>
       </c>
-      <c r="F30">
+      <c r="F50">
         <v>832</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="51" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="B51" s="1">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1">
         <v>490</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E51" s="1">
         <v>609</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F51" s="1">
         <v>650</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>60</v>
       </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32">
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52">
         <v>437</v>
       </c>
-      <c r="E32">
+      <c r="E52">
         <v>153</v>
       </c>
+      <c r="F52">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>60</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB061BBA-645D-4FE9-95AE-0677407FF850}">
+  <dimension ref="B2:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>0.51388888888888096</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>0.52083333333332604</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>0.52777777777777102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>0.53472222222221599</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>0.54166666666666097</v>
+      </c>
+      <c r="C6">
+        <v>1.138325</v>
+      </c>
+      <c r="D6">
+        <v>1.1386750000000001</v>
+      </c>
+      <c r="E6">
+        <v>1.138325</v>
+      </c>
+      <c r="F6">
+        <v>1.1386750000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>0.54861111111110605</v>
+      </c>
+      <c r="C7">
+        <v>1.1386750000000001</v>
+      </c>
+      <c r="D7">
+        <v>1.1389750000000001</v>
+      </c>
+      <c r="E7">
+        <v>1.1380250000000001</v>
+      </c>
+      <c r="F7">
+        <v>1.1380250000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>0.55555555555555103</v>
+      </c>
+      <c r="C8">
+        <v>1.1380250000000001</v>
+      </c>
+      <c r="D8">
+        <v>1.138525</v>
+      </c>
+      <c r="E8">
+        <v>1.1380250000000001</v>
+      </c>
+      <c r="F8">
+        <v>1.138425</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>0.562499999999996</v>
+      </c>
+      <c r="C9">
+        <v>1.138425</v>
+      </c>
+      <c r="D9">
+        <v>1.1391249999999999</v>
+      </c>
+      <c r="E9">
+        <v>1.138325</v>
+      </c>
+      <c r="F9">
+        <v>1.138925</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>0.56944444444444098</v>
+      </c>
+      <c r="C10">
+        <v>1.138925</v>
+      </c>
+      <c r="D10">
+        <v>1.139025</v>
+      </c>
+      <c r="E10">
+        <v>1.138625</v>
+      </c>
+      <c r="F10">
+        <v>1.1387750000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>0.57638888888888595</v>
+      </c>
+      <c r="C11">
+        <v>1.1387750000000001</v>
+      </c>
+      <c r="D11">
+        <v>1.1393249999999999</v>
+      </c>
+      <c r="E11">
+        <v>1.138425</v>
+      </c>
+      <c r="F11">
+        <v>1.1384749999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>0.58333333333333104</v>
+      </c>
+      <c r="C12">
+        <v>1.1384749999999999</v>
+      </c>
+      <c r="D12">
+        <v>1.138525</v>
+      </c>
+      <c r="E12">
+        <v>1.1381250000000001</v>
+      </c>
+      <c r="F12">
+        <v>1.1382749999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>0.59027777777777601</v>
+      </c>
+      <c r="C13">
+        <v>1.1382749999999999</v>
+      </c>
+      <c r="D13">
+        <v>1.1387750000000001</v>
+      </c>
+      <c r="E13">
+        <v>1.1381250000000001</v>
+      </c>
+      <c r="F13">
+        <v>1.1385749999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>0.59722222222222099</v>
+      </c>
+      <c r="C14">
+        <v>1.1385749999999999</v>
+      </c>
+      <c r="D14">
+        <v>1.139175</v>
+      </c>
+      <c r="E14">
+        <v>1.1384749999999999</v>
+      </c>
+      <c r="F14">
+        <v>1.1388750000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>0.60416666666666596</v>
+      </c>
+      <c r="C15">
+        <v>1.1388750000000001</v>
+      </c>
+      <c r="D15">
+        <v>1.1390750000000001</v>
+      </c>
+      <c r="E15">
+        <v>1.1382749999999999</v>
+      </c>
+      <c r="F15">
+        <v>1.138325</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>0.61111111111111005</v>
+      </c>
+      <c r="C16">
+        <v>1.138325</v>
+      </c>
+      <c r="D16">
+        <v>1.1388750000000001</v>
+      </c>
+      <c r="E16">
+        <v>1.1382749999999999</v>
+      </c>
+      <c r="F16">
+        <v>1.13835</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>0.61805555555555503</v>
+      </c>
+      <c r="C17">
+        <v>1.13835</v>
+      </c>
+      <c r="D17">
+        <v>1.138625</v>
+      </c>
+      <c r="E17">
+        <v>1.137875</v>
+      </c>
+      <c r="F17">
+        <v>1.138225</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>0.624999999999999</v>
+      </c>
+      <c r="C18">
+        <v>1.138225</v>
+      </c>
+      <c r="D18">
+        <v>1.138625</v>
+      </c>
+      <c r="E18">
+        <v>1.1375249999999999</v>
+      </c>
+      <c r="F18">
+        <v>1.1382749999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>0.63194444444444398</v>
+      </c>
+      <c r="C19">
+        <v>1.1382749999999999</v>
+      </c>
+      <c r="D19">
+        <v>1.138525</v>
+      </c>
+      <c r="E19">
+        <v>1.1368750000000001</v>
+      </c>
+      <c r="F19">
+        <v>1.1380749999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C20">
+        <v>1.1380749999999999</v>
+      </c>
+      <c r="D20">
+        <v>1.138425</v>
+      </c>
+      <c r="E20">
+        <v>1.137975</v>
+      </c>
+      <c r="F20">
+        <v>1.1380749999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="C21">
+        <v>1.1380749999999999</v>
+      </c>
+      <c r="D21">
+        <v>1.138625</v>
+      </c>
+      <c r="E21">
+        <v>1.1377250000000001</v>
+      </c>
+      <c r="F21">
+        <v>1.138625</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="C22">
+        <v>1.138625</v>
+      </c>
+      <c r="D22">
+        <v>1.1395249999999999</v>
+      </c>
+      <c r="E22">
+        <v>1.138625</v>
+      </c>
+      <c r="F22">
+        <v>1.1388750000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="C23">
+        <v>1.1388750000000001</v>
+      </c>
+      <c r="D23">
+        <v>1.1389750000000001</v>
+      </c>
+      <c r="E23">
+        <v>1.1381250000000001</v>
+      </c>
+      <c r="F23">
+        <v>1.1381250000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C24">
+        <v>1.1381250000000001</v>
+      </c>
+      <c r="D24">
+        <v>1.138725</v>
+      </c>
+      <c r="E24">
+        <v>1.1380250000000001</v>
+      </c>
+      <c r="F24">
+        <v>1.138425</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C25">
+        <v>1.138425</v>
+      </c>
+      <c r="D25">
+        <v>1.1386750000000001</v>
+      </c>
+      <c r="E25">
+        <v>1.137975</v>
+      </c>
+      <c r="F25">
+        <v>1.1380749999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="C26">
+        <v>1.1380749999999999</v>
+      </c>
+      <c r="D26">
+        <v>1.1381250000000001</v>
+      </c>
+      <c r="E26">
+        <v>1.1371500000000001</v>
+      </c>
+      <c r="F26">
+        <v>1.137175</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <f>F31+(F32*3)</f>
+        <v>1.1395184485436711</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <f>AVERAGE(F6:F26)</f>
+        <v>1.1383642857142857</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
       <c r="F32">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>60</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33">
-        <v>230</v>
+        <f>_xlfn.STDEV.P(F6:F26)</f>
+        <v>3.8472094312844314E-4</v>
+      </c>
+      <c r="G32">
+        <f>F31-(F32*3)</f>
+        <v>1.1372101228849003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>